--- a/functionList.xlsx
+++ b/functionList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\291913\Desktop\temp\TourGroup.js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\TourGroup.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDD978-2843-489B-95F2-DC8FC4C37095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA47A1D-6353-4CE3-B29F-7ACC9760BD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{419695C1-252A-49B7-93AC-C819038B9CCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{419695C1-252A-49B7-93AC-C819038B9CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Tree Traversal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1334,10 +1334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOM Insertion, Outside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ele.innerHTML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1350,14 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gp.innerText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gp.innerHTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gp.appendHTML(text)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1391,6 +1379,82 @@
   </si>
   <si>
     <t>gp.beforeHTML(text)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.textContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ele.outerHTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.replaceWith(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.innerHTML()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.outerHTML()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.innerText()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.textContent()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.empty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.empty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ele.replaceChildren()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.remove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.remove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ele.remove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom Modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp.unWrap()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.wrapAll( wrappingElement )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.unWrap()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.wrapInner()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.wrap()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1444,6 +1508,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1467,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,6 +1552,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58692C4-5898-4608-8267-F3A16DE74183}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1811,8 +1885,8 @@
     <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1966,8 +2040,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2074,61 +2148,58 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
+    <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,37 +2207,113 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
